--- a/Code/Results/Cases/Case_4_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.75837646010193</v>
+        <v>24.40962925897914</v>
       </c>
       <c r="C2">
-        <v>32.65739773159758</v>
+        <v>27.2694669272689</v>
       </c>
       <c r="D2">
-        <v>12.20751407347824</v>
+        <v>15.4332243392616</v>
       </c>
       <c r="E2">
-        <v>13.20460336650849</v>
+        <v>16.89904869702617</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.076095027619894</v>
+        <v>3.796599285071753</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>65.40816005519876</v>
+        <v>51.27908416197352</v>
       </c>
       <c r="J2">
-        <v>5.861103834521905</v>
+        <v>9.692096973219188</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.76175740700873</v>
+        <v>24.28329111718783</v>
       </c>
       <c r="C3">
-        <v>30.36495492658981</v>
+        <v>26.77821748385764</v>
       </c>
       <c r="D3">
-        <v>11.65954512963446</v>
+        <v>15.40108689930717</v>
       </c>
       <c r="E3">
-        <v>12.62410932916826</v>
+        <v>16.86960474898793</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.100954941677912</v>
+        <v>3.803576977178254</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>61.38724172330846</v>
+        <v>49.98904320153159</v>
       </c>
       <c r="J3">
-        <v>5.792301182388377</v>
+        <v>9.714116602872037</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.5216331575549</v>
+        <v>24.21909728476391</v>
       </c>
       <c r="C4">
-        <v>28.94326214567268</v>
+        <v>26.48256505077505</v>
       </c>
       <c r="D4">
-        <v>11.33304983970199</v>
+        <v>15.3855095132459</v>
       </c>
       <c r="E4">
-        <v>12.27926285175375</v>
+        <v>16.85608198951321</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.116111198433406</v>
+        <v>3.808061544129464</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.88261293535878</v>
+        <v>49.18262102414104</v>
       </c>
       <c r="J4">
-        <v>5.756441052318827</v>
+        <v>9.729410298342394</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.011753810422</v>
+        <v>24.19630947948678</v>
       </c>
       <c r="C5">
-        <v>28.35957875284516</v>
+        <v>26.36374224586579</v>
       </c>
       <c r="D5">
-        <v>11.20227653933114</v>
+        <v>15.3802047034992</v>
       </c>
       <c r="E5">
-        <v>12.14138552421911</v>
+        <v>16.85171421484761</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.122283595457302</v>
+        <v>3.809939712252839</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.85172087796116</v>
+        <v>48.85070979802597</v>
       </c>
       <c r="J5">
-        <v>5.743291983660635</v>
+        <v>9.736087269543162</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93305920811144</v>
+        <v>24.19272930646391</v>
       </c>
       <c r="C6">
-        <v>28.26238063692743</v>
+        <v>26.34411641834777</v>
       </c>
       <c r="D6">
-        <v>11.18069404298584</v>
+        <v>15.37938677548318</v>
       </c>
       <c r="E6">
-        <v>12.11864515699853</v>
+        <v>16.85105787557402</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.123308882596215</v>
+        <v>3.810254650346639</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.67989675097678</v>
+        <v>48.79540718883226</v>
       </c>
       <c r="J6">
-        <v>5.741193294390206</v>
+        <v>9.73722279384363</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5147760701218</v>
+        <v>24.2187763037075</v>
       </c>
       <c r="C7">
-        <v>28.93540870908747</v>
+        <v>26.48095564910398</v>
       </c>
       <c r="D7">
-        <v>11.33127721214928</v>
+        <v>15.38543375021104</v>
       </c>
       <c r="E7">
-        <v>12.27739294085529</v>
+        <v>16.8560184611121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.116194429667169</v>
+        <v>3.808086668174747</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.86875269536556</v>
+        <v>49.17815763495062</v>
       </c>
       <c r="J7">
-        <v>5.756257961995505</v>
+        <v>9.729498547595748</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.07221173826584</v>
+        <v>24.36329795703747</v>
       </c>
       <c r="C8">
-        <v>31.86931052862288</v>
+        <v>27.09893745509143</v>
       </c>
       <c r="D8">
-        <v>12.0163415995525</v>
+        <v>15.42128017639434</v>
       </c>
       <c r="E8">
-        <v>13.00185816312842</v>
+        <v>16.88794944682085</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.084704516048027</v>
+        <v>3.798963828069077</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>64.02826152744794</v>
+        <v>50.83743702427954</v>
       </c>
       <c r="J8">
-        <v>5.83596296505114</v>
+        <v>9.699320454728841</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.03835193720568</v>
+        <v>24.75217608209525</v>
       </c>
       <c r="C9">
-        <v>37.59671192629933</v>
+        <v>28.35132170433358</v>
       </c>
       <c r="D9">
-        <v>13.45508796453081</v>
+        <v>15.52458356431682</v>
       </c>
       <c r="E9">
-        <v>14.53268911237986</v>
+        <v>16.98680036364543</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.020748234393142</v>
+        <v>3.782648058977753</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.95076253877436</v>
+        <v>53.96458563790581</v>
       </c>
       <c r="J9">
-        <v>6.050883442240937</v>
+        <v>9.654272930182071</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.79135296912425</v>
+        <v>25.10079865734526</v>
       </c>
       <c r="C10">
-        <v>42.00385861481432</v>
+        <v>29.28694068226288</v>
       </c>
       <c r="D10">
-        <v>14.60729149367336</v>
+        <v>15.6206039913485</v>
       </c>
       <c r="E10">
-        <v>15.76562028271259</v>
+        <v>17.08157698416907</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.969799957364333</v>
+        <v>3.771599744275859</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>81.31577844816714</v>
+        <v>56.16886532937227</v>
       </c>
       <c r="J10">
-        <v>6.259563893224898</v>
+        <v>9.629873922522671</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.57216903463433</v>
+        <v>25.27262755957872</v>
       </c>
       <c r="C11">
-        <v>44.07512726093024</v>
+        <v>29.71403829811704</v>
       </c>
       <c r="D11">
-        <v>15.16709309944362</v>
+        <v>15.66863690400328</v>
       </c>
       <c r="E11">
-        <v>16.36653445676366</v>
+        <v>17.1294967714891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.944824053787344</v>
+        <v>3.766772922987149</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>84.75766359232024</v>
+        <v>57.14841843121663</v>
       </c>
       <c r="J11">
-        <v>6.370819336709574</v>
+        <v>9.620680408961709</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.26404174294651</v>
+        <v>25.33955368487326</v>
       </c>
       <c r="C12">
-        <v>44.87620410902854</v>
+        <v>29.87582918101919</v>
       </c>
       <c r="D12">
-        <v>15.38632199494643</v>
+        <v>15.6874484032871</v>
       </c>
       <c r="E12">
-        <v>16.60217988819724</v>
+        <v>17.14833149268383</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.934981771048109</v>
+        <v>3.764973401362433</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>86.08449079774432</v>
+        <v>57.51579294831423</v>
       </c>
       <c r="J12">
-        <v>6.416001534808114</v>
+        <v>9.617474527794457</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.11410717044348</v>
+        <v>25.32505807718677</v>
       </c>
       <c r="C13">
-        <v>44.70277995503825</v>
+        <v>29.84098441963361</v>
       </c>
       <c r="D13">
-        <v>15.33873910164125</v>
+        <v>15.68336938955608</v>
       </c>
       <c r="E13">
-        <v>16.55101897776491</v>
+        <v>17.14424452476101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.937121253310738</v>
+        <v>3.765359707781465</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.79747111741021</v>
+        <v>57.4368340480348</v>
       </c>
       <c r="J13">
-        <v>6.406120041055854</v>
+        <v>9.61815269536994</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.62868671818643</v>
+        <v>25.27809664840844</v>
       </c>
       <c r="C14">
-        <v>44.14064306428844</v>
+        <v>29.72734862570429</v>
       </c>
       <c r="D14">
-        <v>15.18496794142781</v>
+        <v>15.67017208479846</v>
       </c>
       <c r="E14">
-        <v>16.38574125192523</v>
+        <v>17.13103253344934</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.944022965976202</v>
+        <v>3.766624310241648</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>84.8662749974999</v>
+        <v>57.17871514958315</v>
       </c>
       <c r="J14">
-        <v>6.374470085153653</v>
+        <v>9.620411129343973</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.33389714160879</v>
+        <v>25.24957198073377</v>
       </c>
       <c r="C15">
-        <v>43.79876985295516</v>
+        <v>29.65774653321264</v>
       </c>
       <c r="D15">
-        <v>15.09180328789194</v>
+        <v>15.66216930247879</v>
       </c>
       <c r="E15">
-        <v>16.28564727048147</v>
+        <v>17.12302938605567</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.948195651221672</v>
+        <v>3.767402589859365</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>84.29933675423071</v>
+        <v>57.02013973429801</v>
       </c>
       <c r="J15">
-        <v>6.355507620518629</v>
+        <v>9.621830407289336</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.67697497129145</v>
+        <v>25.08983186236338</v>
       </c>
       <c r="C16">
-        <v>41.87037315369734</v>
+        <v>29.25904527769729</v>
       </c>
       <c r="D16">
-        <v>14.57158290061818</v>
+        <v>15.6175522417926</v>
       </c>
       <c r="E16">
-        <v>15.72732942550908</v>
+        <v>17.07854182021098</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.97138649026165</v>
+        <v>3.771919165975288</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>81.09345968962054</v>
+        <v>56.10436282125379</v>
       </c>
       <c r="J16">
-        <v>6.252674865672407</v>
+        <v>9.630513213366925</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.6833624958144</v>
+        <v>24.995196535387</v>
       </c>
       <c r="C17">
-        <v>40.70852851470778</v>
+        <v>29.01472213904715</v>
       </c>
       <c r="D17">
-        <v>14.26278786591726</v>
+        <v>15.59129379438879</v>
       </c>
       <c r="E17">
-        <v>15.39641112392438</v>
+        <v>17.05247945682859</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.985079307972438</v>
+        <v>3.774740695139124</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>79.15615131321432</v>
+        <v>55.5364571683281</v>
       </c>
       <c r="J17">
-        <v>6.194182467580914</v>
+        <v>9.636328976523084</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.11823738753311</v>
+        <v>24.94201396237554</v>
       </c>
       <c r="C18">
-        <v>40.04595039031553</v>
+        <v>28.87434211352613</v>
       </c>
       <c r="D18">
-        <v>14.08836380171502</v>
+        <v>15.57660059384865</v>
       </c>
       <c r="E18">
-        <v>15.20965813537883</v>
+        <v>17.03794159261503</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.992795575786851</v>
+        <v>3.776382326171413</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>78.04965849415724</v>
+        <v>55.20764287099493</v>
       </c>
       <c r="J18">
-        <v>6.162020615639072</v>
+        <v>9.639853337813831</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.92782719547549</v>
+        <v>24.9242231023077</v>
       </c>
       <c r="C19">
-        <v>39.82242039090808</v>
+        <v>28.82684210760819</v>
       </c>
       <c r="D19">
-        <v>14.02980505569219</v>
+        <v>15.57169623065225</v>
       </c>
       <c r="E19">
-        <v>15.14698797301446</v>
+        <v>17.03309710228081</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.995383762171666</v>
+        <v>3.776941386956254</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.67611566068865</v>
+        <v>55.09594655377422</v>
       </c>
       <c r="J19">
-        <v>6.151368858228322</v>
+        <v>9.641077374193253</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.78843408747491</v>
+        <v>25.00514165695355</v>
       </c>
       <c r="C20">
-        <v>40.83157882080242</v>
+        <v>29.04071655705039</v>
       </c>
       <c r="D20">
-        <v>14.29531764388338</v>
+        <v>15.59404664336813</v>
       </c>
       <c r="E20">
-        <v>15.43125375055611</v>
+        <v>17.05520702104004</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.983638926131685</v>
+        <v>3.7744383991979</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.36151430633139</v>
+        <v>55.59713798901746</v>
       </c>
       <c r="J20">
-        <v>6.200251626386848</v>
+        <v>9.635691312353298</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.77071863385765</v>
+        <v>25.29184031318051</v>
       </c>
       <c r="C21">
-        <v>44.305227113618</v>
+        <v>29.76072583105355</v>
       </c>
       <c r="D21">
-        <v>15.22991528789419</v>
+        <v>15.67403159101307</v>
       </c>
       <c r="E21">
-        <v>16.43404304448374</v>
+        <v>17.13489455313729</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.942007504885194</v>
+        <v>3.766252100780274</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>85.13904557895916</v>
+        <v>57.25462927987491</v>
       </c>
       <c r="J21">
-        <v>6.383676304049237</v>
+        <v>9.619740283839009</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.82811435600928</v>
+        <v>25.49002127169376</v>
       </c>
       <c r="C22">
-        <v>46.67942170109022</v>
+        <v>30.23156626155448</v>
       </c>
       <c r="D22">
-        <v>15.8848905882004</v>
+        <v>15.72993245011198</v>
       </c>
       <c r="E22">
-        <v>17.13872817960701</v>
+        <v>17.19098649904795</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.912446931023041</v>
+        <v>3.761066620638223</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>89.06094038265839</v>
+        <v>58.31704843749268</v>
       </c>
       <c r="J22">
-        <v>6.521966867376654</v>
+        <v>9.610921881180392</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.71681516934888</v>
+        <v>25.3832758236353</v>
       </c>
       <c r="C23">
-        <v>45.39931622977971</v>
+        <v>29.98029426583269</v>
       </c>
       <c r="D23">
-        <v>15.5302491029094</v>
+        <v>15.69976668439731</v>
       </c>
       <c r="E23">
-        <v>16.75697948623739</v>
+        <v>17.1606831691788</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.928498887019348</v>
+        <v>3.763819249259755</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>86.94947115214649</v>
+        <v>57.7519926433387</v>
       </c>
       <c r="J23">
-        <v>6.446139806336622</v>
+        <v>9.615480950351047</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7409126417479</v>
+        <v>25.00064164994434</v>
       </c>
       <c r="C24">
-        <v>40.77593150079827</v>
+        <v>29.02896420536134</v>
       </c>
       <c r="D24">
-        <v>14.28060139850418</v>
+        <v>15.59280082443176</v>
       </c>
       <c r="E24">
-        <v>15.41549066603286</v>
+        <v>17.0539725007155</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.984290599855385</v>
+        <v>3.774575006440131</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>79.26864768439232</v>
+        <v>55.56971139187888</v>
       </c>
       <c r="J24">
-        <v>6.197503240716902</v>
+        <v>9.635979037278794</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.68914286167562</v>
+        <v>24.63579956198494</v>
       </c>
       <c r="C25">
-        <v>36.02222028926829</v>
+        <v>28.00913820306786</v>
       </c>
       <c r="D25">
-        <v>13.05274725779465</v>
+        <v>15.49309966878194</v>
       </c>
       <c r="E25">
-        <v>14.10351896821603</v>
+        <v>16.95616925036248</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.038507943057523</v>
+        <v>3.786895519182751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.27175299187726</v>
+        <v>53.13390058311573</v>
       </c>
       <c r="J25">
-        <v>5.985174978846532</v>
+        <v>9.664938051289941</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40962925897914</v>
+        <v>24.75837646010184</v>
       </c>
       <c r="C2">
-        <v>27.2694669272689</v>
+        <v>32.65739773159744</v>
       </c>
       <c r="D2">
-        <v>15.4332243392616</v>
+        <v>12.20751407347827</v>
       </c>
       <c r="E2">
-        <v>16.89904869702617</v>
+        <v>13.2046033665085</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.796599285071753</v>
+        <v>2.076095027620276</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>51.27908416197352</v>
+        <v>65.40816005519819</v>
       </c>
       <c r="J2">
-        <v>9.692096973219188</v>
+        <v>5.861103834521936</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.28329111718783</v>
+        <v>22.7617574070086</v>
       </c>
       <c r="C3">
-        <v>26.77821748385764</v>
+        <v>30.36495492658988</v>
       </c>
       <c r="D3">
-        <v>15.40108689930717</v>
+        <v>11.65954512963444</v>
       </c>
       <c r="E3">
-        <v>16.86960474898793</v>
+        <v>12.62410932916824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.803576977178254</v>
+        <v>2.100954941678307</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>49.98904320153159</v>
+        <v>61.38724172330827</v>
       </c>
       <c r="J3">
-        <v>9.714116602872037</v>
+        <v>5.792301182388356</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.21909728476391</v>
+        <v>21.52163315755497</v>
       </c>
       <c r="C4">
-        <v>26.48256505077505</v>
+        <v>28.94326214567279</v>
       </c>
       <c r="D4">
-        <v>15.3855095132459</v>
+        <v>11.33304983970217</v>
       </c>
       <c r="E4">
-        <v>16.85608198951321</v>
+        <v>12.2792628517538</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.808061544129464</v>
+        <v>2.116111198433663</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>49.18262102414104</v>
+        <v>58.88261293535892</v>
       </c>
       <c r="J4">
-        <v>9.729410298342394</v>
+        <v>5.75644105231873</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.19630947948678</v>
+        <v>21.01175381042187</v>
       </c>
       <c r="C5">
-        <v>26.36374224586579</v>
+        <v>28.35957875284511</v>
       </c>
       <c r="D5">
-        <v>15.3802047034992</v>
+        <v>11.20227653933114</v>
       </c>
       <c r="E5">
-        <v>16.85171421484761</v>
+        <v>12.14138552421899</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.809939712252839</v>
+        <v>2.122283595457039</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>48.85070979802597</v>
+        <v>57.85172087796074</v>
       </c>
       <c r="J5">
-        <v>9.736087269543162</v>
+        <v>5.743291983660574</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.19272930646391</v>
+        <v>20.93305920811143</v>
       </c>
       <c r="C6">
-        <v>26.34411641834777</v>
+        <v>28.26238063692754</v>
       </c>
       <c r="D6">
-        <v>15.37938677548318</v>
+        <v>11.18069404298581</v>
       </c>
       <c r="E6">
-        <v>16.85105787557402</v>
+        <v>12.11864515699848</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.810254650346639</v>
+        <v>2.123308882596215</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>48.79540718883226</v>
+        <v>57.67989675097722</v>
       </c>
       <c r="J6">
-        <v>9.73722279384363</v>
+        <v>5.741193294390214</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.2187763037075</v>
+        <v>21.51477607012174</v>
       </c>
       <c r="C7">
-        <v>26.48095564910398</v>
+        <v>28.93540870908735</v>
       </c>
       <c r="D7">
-        <v>15.38543375021104</v>
+        <v>11.33127721214923</v>
       </c>
       <c r="E7">
-        <v>16.8560184611121</v>
+        <v>12.27739294085521</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.808086668174747</v>
+        <v>2.116194429667569</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>49.17815763495062</v>
+        <v>58.86875269536536</v>
       </c>
       <c r="J7">
-        <v>9.729498547595748</v>
+        <v>5.756257961995458</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.36329795703747</v>
+        <v>24.07221173826587</v>
       </c>
       <c r="C8">
-        <v>27.09893745509143</v>
+        <v>31.86931052862261</v>
       </c>
       <c r="D8">
-        <v>15.42128017639434</v>
+        <v>12.01634159955249</v>
       </c>
       <c r="E8">
-        <v>16.88794944682085</v>
+        <v>13.00185816312837</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.798963828069077</v>
+        <v>2.084704516047666</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>50.83743702427954</v>
+        <v>64.02826152744733</v>
       </c>
       <c r="J8">
-        <v>9.699320454728841</v>
+        <v>5.835962965051141</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.75217608209525</v>
+        <v>29.03835193720557</v>
       </c>
       <c r="C9">
-        <v>28.35132170433358</v>
+        <v>37.59671192629925</v>
       </c>
       <c r="D9">
-        <v>15.52458356431682</v>
+        <v>13.45508796453078</v>
       </c>
       <c r="E9">
-        <v>16.98680036364543</v>
+        <v>14.53268911237981</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.782648058977753</v>
+        <v>2.02074823439338</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>53.96458563790581</v>
+        <v>73.95076253877437</v>
       </c>
       <c r="J9">
-        <v>9.654272930182071</v>
+        <v>6.050883442240947</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.10079865734526</v>
+        <v>32.79135296912424</v>
       </c>
       <c r="C10">
-        <v>29.28694068226288</v>
+        <v>42.00385861481413</v>
       </c>
       <c r="D10">
-        <v>15.6206039913485</v>
+        <v>14.60729149367327</v>
       </c>
       <c r="E10">
-        <v>17.08157698416907</v>
+        <v>15.76562028271256</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.771599744275859</v>
+        <v>1.969799957364333</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>56.16886532937227</v>
+        <v>81.3157784481663</v>
       </c>
       <c r="J10">
-        <v>9.629873922522671</v>
+        <v>6.259563893224901</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.27262755957872</v>
+        <v>34.57216903463428</v>
       </c>
       <c r="C11">
-        <v>29.71403829811704</v>
+        <v>44.07512726093019</v>
       </c>
       <c r="D11">
-        <v>15.66863690400328</v>
+        <v>15.1670930994436</v>
       </c>
       <c r="E11">
-        <v>17.1294967714891</v>
+        <v>16.36653445676365</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.766772922987149</v>
+        <v>1.944824053787373</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>57.14841843121663</v>
+        <v>84.75766359232091</v>
       </c>
       <c r="J11">
-        <v>9.620680408961709</v>
+        <v>6.370819336709562</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.33955368487326</v>
+        <v>35.26404174294623</v>
       </c>
       <c r="C12">
-        <v>29.87582918101919</v>
+        <v>44.87620410902803</v>
       </c>
       <c r="D12">
-        <v>15.6874484032871</v>
+        <v>15.38632199494631</v>
       </c>
       <c r="E12">
-        <v>17.14833149268383</v>
+        <v>16.60217988819728</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.764973401362433</v>
+        <v>1.934981771048003</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>57.51579294831423</v>
+        <v>86.08449079774302</v>
       </c>
       <c r="J12">
-        <v>9.617474527794457</v>
+        <v>6.416001534808129</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.32505807718677</v>
+        <v>35.11410717044318</v>
       </c>
       <c r="C13">
-        <v>29.84098441963361</v>
+        <v>44.70277995503817</v>
       </c>
       <c r="D13">
-        <v>15.68336938955608</v>
+        <v>15.33873910164125</v>
       </c>
       <c r="E13">
-        <v>17.14424452476101</v>
+        <v>16.55101897776485</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.765359707781465</v>
+        <v>1.937121253310815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>57.4368340480348</v>
+        <v>85.79747111740939</v>
       </c>
       <c r="J13">
-        <v>9.61815269536994</v>
+        <v>6.406120041055832</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.27809664840844</v>
+        <v>34.62868671818666</v>
       </c>
       <c r="C14">
-        <v>29.72734862570429</v>
+        <v>44.14064306428872</v>
       </c>
       <c r="D14">
-        <v>15.67017208479846</v>
+        <v>15.1849679414279</v>
       </c>
       <c r="E14">
-        <v>17.13103253344934</v>
+        <v>16.38574125192525</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.766624310241648</v>
+        <v>1.944022965976082</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>57.17871514958315</v>
+        <v>84.86627499750125</v>
       </c>
       <c r="J14">
-        <v>9.620411129343973</v>
+        <v>6.374470085153592</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.24957198073377</v>
+        <v>34.33389714160893</v>
       </c>
       <c r="C15">
-        <v>29.65774653321264</v>
+        <v>43.7987698529552</v>
       </c>
       <c r="D15">
-        <v>15.66216930247879</v>
+        <v>15.09180328789194</v>
       </c>
       <c r="E15">
-        <v>17.12302938605567</v>
+        <v>16.28564727048151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.767402589859365</v>
+        <v>1.948195651221537</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>57.02013973429801</v>
+        <v>84.29933675423088</v>
       </c>
       <c r="J15">
-        <v>9.621830407289336</v>
+        <v>6.355507620518646</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.08983186236338</v>
+        <v>32.67697497129151</v>
       </c>
       <c r="C16">
-        <v>29.25904527769729</v>
+        <v>41.87037315369724</v>
       </c>
       <c r="D16">
-        <v>15.6175522417926</v>
+        <v>14.57158290061814</v>
       </c>
       <c r="E16">
-        <v>17.07854182021098</v>
+        <v>15.72732942550911</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.771919165975288</v>
+        <v>1.971386490261541</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>56.10436282125379</v>
+        <v>81.09345968962012</v>
       </c>
       <c r="J16">
-        <v>9.630513213366925</v>
+        <v>6.25267486567242</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.995196535387</v>
+        <v>31.68336249581451</v>
       </c>
       <c r="C17">
-        <v>29.01472213904715</v>
+        <v>40.7085285147076</v>
       </c>
       <c r="D17">
-        <v>15.59129379438879</v>
+        <v>14.26278786591729</v>
       </c>
       <c r="E17">
-        <v>17.05247945682859</v>
+        <v>15.39641112392444</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.774740695139124</v>
+        <v>1.985079307972329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>55.5364571683281</v>
+        <v>79.15615131321378</v>
       </c>
       <c r="J17">
-        <v>9.636328976523084</v>
+        <v>6.194182467580935</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.94201396237554</v>
+        <v>31.11823738753336</v>
       </c>
       <c r="C18">
-        <v>28.87434211352613</v>
+        <v>40.04595039031552</v>
       </c>
       <c r="D18">
-        <v>15.57660059384865</v>
+        <v>14.08836380171496</v>
       </c>
       <c r="E18">
-        <v>17.03794159261503</v>
+        <v>15.20965813537882</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.776382326171413</v>
+        <v>1.992795575786727</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>55.20764287099493</v>
+        <v>78.04965849415689</v>
       </c>
       <c r="J18">
-        <v>9.639853337813831</v>
+        <v>6.16202061563911</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.9242231023077</v>
+        <v>30.92782719547546</v>
       </c>
       <c r="C19">
-        <v>28.82684210760819</v>
+        <v>39.82242039090796</v>
       </c>
       <c r="D19">
-        <v>15.57169623065225</v>
+        <v>14.02980505569212</v>
       </c>
       <c r="E19">
-        <v>17.03309710228081</v>
+        <v>15.14698797301443</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.776941386956254</v>
+        <v>1.99538376217153</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>55.09594655377422</v>
+        <v>77.67611566068838</v>
       </c>
       <c r="J19">
-        <v>9.641077374193253</v>
+        <v>6.15136885822833</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.00514165695355</v>
+        <v>31.7884340874748</v>
       </c>
       <c r="C20">
-        <v>29.04071655705039</v>
+        <v>40.83157882080229</v>
       </c>
       <c r="D20">
-        <v>15.59404664336813</v>
+        <v>14.29531764388337</v>
       </c>
       <c r="E20">
-        <v>17.05520702104004</v>
+        <v>15.43125375055609</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.7744383991979</v>
+        <v>1.983638926131575</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>55.59713798901746</v>
+        <v>79.36151430633099</v>
       </c>
       <c r="J20">
-        <v>9.635691312353298</v>
+        <v>6.20025162638688</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.29184031318051</v>
+        <v>34.7707186338579</v>
       </c>
       <c r="C21">
-        <v>29.76072583105355</v>
+        <v>44.30522711361832</v>
       </c>
       <c r="D21">
-        <v>15.67403159101307</v>
+        <v>15.22991528789417</v>
       </c>
       <c r="E21">
-        <v>17.13489455313729</v>
+        <v>16.43404304448384</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.766252100780274</v>
+        <v>1.94200750488518</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>57.25462927987491</v>
+        <v>85.13904557896052</v>
       </c>
       <c r="J21">
-        <v>9.619740283839009</v>
+        <v>6.383676304049299</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.49002127169376</v>
+        <v>36.82811435600928</v>
       </c>
       <c r="C22">
-        <v>30.23156626155448</v>
+        <v>46.6794217010904</v>
       </c>
       <c r="D22">
-        <v>15.72993245011198</v>
+        <v>15.88489058820048</v>
       </c>
       <c r="E22">
-        <v>17.19098649904795</v>
+        <v>17.13872817960695</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.761066620638223</v>
+        <v>1.912446931023325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>58.31704843749268</v>
+        <v>89.06094038265869</v>
       </c>
       <c r="J22">
-        <v>9.610921881180392</v>
+        <v>6.521966867376602</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.3832758236353</v>
+        <v>35.71681516934867</v>
       </c>
       <c r="C23">
-        <v>29.98029426583269</v>
+        <v>45.39931622977942</v>
       </c>
       <c r="D23">
-        <v>15.69976668439731</v>
+        <v>15.53024910290937</v>
       </c>
       <c r="E23">
-        <v>17.1606831691788</v>
+        <v>16.75697948623732</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.763819249259755</v>
+        <v>1.928498887019333</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>57.7519926433387</v>
+        <v>86.94947115214589</v>
       </c>
       <c r="J23">
-        <v>9.615480950351047</v>
+        <v>6.446139806336576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.00064164994434</v>
+        <v>31.74091264174799</v>
       </c>
       <c r="C24">
-        <v>29.02896420536134</v>
+        <v>40.77593150079834</v>
       </c>
       <c r="D24">
-        <v>15.59280082443176</v>
+        <v>14.28060139850429</v>
       </c>
       <c r="E24">
-        <v>17.0539725007155</v>
+        <v>15.41549066603286</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.774575006440131</v>
+        <v>1.984290599855425</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>55.56971139187888</v>
+        <v>79.26864768439276</v>
       </c>
       <c r="J24">
-        <v>9.635979037278794</v>
+        <v>6.197503240716878</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.63579956198494</v>
+        <v>27.68914286167537</v>
       </c>
       <c r="C25">
-        <v>28.00913820306786</v>
+        <v>36.02222028926808</v>
       </c>
       <c r="D25">
-        <v>15.49309966878194</v>
+        <v>13.0527472577946</v>
       </c>
       <c r="E25">
-        <v>16.95616925036248</v>
+        <v>14.103518968216</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.786895519182751</v>
+        <v>2.038507943057618</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>53.13390058311573</v>
+        <v>71.27175299187701</v>
       </c>
       <c r="J25">
-        <v>9.664938051289941</v>
+        <v>5.985174978846578</v>
       </c>
       <c r="K25">
         <v>0</v>
